--- a/Excel/namo 125.xlsx
+++ b/Excel/namo 125.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\A8\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128D3679-3E86-4F00-B248-386F81347414}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2481318-5A3C-4E5F-BFB5-4CF1D1663E80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="396" yWindow="1620" windowWidth="14688" windowHeight="10164" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4303" uniqueCount="4303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4305" uniqueCount="4305">
   <si>
     <t>videoId</t>
   </si>
@@ -12929,6 +12929,12 @@
   </si>
   <si>
     <t>24/6/2022</t>
+  </si>
+  <si>
+    <t>25/6/2022</t>
+  </si>
+  <si>
+    <t>ศิลปะแห่งการใช้สติในทุกกรณี @ ท่านพุทธทาสภิกขุ</t>
   </si>
 </sst>
 </file>
@@ -13345,8 +13351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4291"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13427,6 +13433,9 @@
       <c r="E5" s="5">
         <v>4.027777777777778E-2</v>
       </c>
+      <c r="F5" s="6" t="s">
+        <v>4303</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -13764,7 +13773,7 @@
         <v>169055</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>68</v>
       </c>
@@ -13775,7 +13784,7 @@
         <v>164211</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>69</v>
       </c>
@@ -13786,7 +13795,7 @@
         <v>159032</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>70</v>
       </c>
@@ -13797,7 +13806,7 @@
         <v>152441</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>71</v>
       </c>
@@ -13808,7 +13817,7 @@
         <v>151891</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>72</v>
       </c>
@@ -13819,7 +13828,7 @@
         <v>151001</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>73</v>
       </c>
@@ -13830,7 +13839,7 @@
         <v>147138</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>74</v>
       </c>
@@ -13841,7 +13850,7 @@
         <v>146102</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>75</v>
       </c>
@@ -13852,7 +13861,7 @@
         <v>145814</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>76</v>
       </c>
@@ -13863,7 +13872,7 @@
         <v>143110</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>77</v>
       </c>
@@ -13874,7 +13883,7 @@
         <v>142965</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>78</v>
       </c>
@@ -13885,7 +13894,7 @@
         <v>139712</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>79</v>
       </c>
@@ -13896,7 +13905,7 @@
         <v>139346</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>80</v>
       </c>
@@ -13907,7 +13916,7 @@
         <v>137551</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>81</v>
       </c>
@@ -13917,8 +13926,14 @@
       <c r="C46" s="3">
         <v>137065</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>4304</v>
+      </c>
+      <c r="E46" s="5">
+        <v>6.5277777777777782E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>82</v>
       </c>
@@ -13929,7 +13944,7 @@
         <v>136718</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>83</v>
       </c>

--- a/Excel/namo 125.xlsx
+++ b/Excel/namo 125.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\A8\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2481318-5A3C-4E5F-BFB5-4CF1D1663E80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6942B957-F205-4D41-8AAD-96EE1043C501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="1620" windowWidth="14688" windowHeight="10164" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2244" yWindow="1620" windowWidth="12840" windowHeight="10164" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4305" uniqueCount="4305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4306" uniqueCount="4306">
   <si>
     <t>videoId</t>
   </si>
@@ -12935,6 +12935,9 @@
   </si>
   <si>
     <t>ศิลปะแห่งการใช้สติในทุกกรณี @ ท่านพุทธทาสภิกขุ</t>
+  </si>
+  <si>
+    <t>26/6/2022</t>
   </si>
 </sst>
 </file>
@@ -13351,8 +13354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13416,6 +13419,9 @@
       <c r="E4" s="5">
         <v>4.5833333333333337E-2</v>
       </c>
+      <c r="F4" s="6" t="s">
+        <v>4305</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">

--- a/Excel/namo 125.xlsx
+++ b/Excel/namo 125.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\A8\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6942B957-F205-4D41-8AAD-96EE1043C501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F9368F-A850-418B-A6EB-90EC7DB71199}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2244" yWindow="1620" windowWidth="12840" windowHeight="10164" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2244" yWindow="1620" windowWidth="14304" windowHeight="10164" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4306" uniqueCount="4306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4307" uniqueCount="4307">
   <si>
     <t>videoId</t>
   </si>
@@ -12938,6 +12938,9 @@
   </si>
   <si>
     <t>26/6/2022</t>
+  </si>
+  <si>
+    <t>28/6/2022</t>
   </si>
 </sst>
 </file>
@@ -13355,7 +13358,7 @@
   <dimension ref="A1:F4291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13459,6 +13462,9 @@
       <c r="E6" s="5">
         <v>4.5138888888888888E-2</v>
       </c>
+      <c r="F6" s="6" t="s">
+        <v>4306</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
